--- a/210621 - AG thesis/Raw/uidA (per ng).xlsx
+++ b/210621 - AG thesis/Raw/uidA (per ng).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TL\Work\Research\Dr. Uyaguari\AG\210621 - AG thesis\Raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TL\Work\Research\Dr. Uyaguari\AG\AG-TL-MUD-human-enteric-viruses-quantitation\210621 - AG thesis\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F09EA3-599B-495C-B7AB-27C44C81A932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0DDCA-2B88-49DD-A6D4-B31A4FBDB666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12072" yWindow="780" windowWidth="10824" windowHeight="7500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="6768" windowWidth="10824" windowHeight="7500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uidA" sheetId="1" r:id="rId1"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
